--- a/target/classes/testExcelData/excelProject01.xlsx
+++ b/target/classes/testExcelData/excelProject01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soyuz\OneDrive\Desktop\newSELENIUM-workspace\ExlProject\src\main\java\testExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A5A027-0AA8-43F9-98AC-C6A944B261F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E27670E-557A-4703-8849-6883CD15BBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1970" yWindow="1020" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{F8854A0C-A02C-4475-AE95-E9BF05A031B4}"/>
   </bookViews>
@@ -595,7 +595,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
